--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T09:30:55-05:00</t>
+    <t>2022-01-07T08:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T08:48:00-05:00</t>
+    <t>2022-01-10T11:07:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1518,7 +1518,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T11:07:52-05:00</t>
+    <t>2022-01-10T14:04:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:04:03-05:00</t>
+    <t>2022-01-11T11:42:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:42:07-05:00</t>
+    <t>2022-01-11T11:53:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:53:21-05:00</t>
+    <t>2022-02-03T09:58:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:58:18-05:00</t>
+    <t>2022-02-03T10:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$79</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="541">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T10:48:00-05:00</t>
+    <t>2022-03-09T14:32:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -605,6 +605,20 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/rating}
+</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>qualification</t>
   </si>
   <si>
@@ -616,10 +630,6 @@
   </si>
   <si>
     <t>An extension to add qualifications for an organization (e.g. accreditation) or practitionerRole (e.g. registered to prescribe controlled substances).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>org-description</t>
@@ -2012,7 +2022,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM78"/>
+  <dimension ref="A1:AM79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3980,7 +3990,7 @@
         <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4040,7 +4050,7 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>113</v>
@@ -4063,7 +4073,7 @@
         <v>185</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>76</v>
@@ -4073,7 +4083,7 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>86</v>
@@ -4085,13 +4095,13 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4151,7 +4161,7 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>113</v>
@@ -4169,32 +4179,34 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="C20" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>199</v>
@@ -4202,12 +4214,8 @@
       <c r="L20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
       </c>
@@ -4255,7 +4263,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4264,7 +4272,7 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>113</v>
@@ -4273,7 +4281,7 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4284,11 +4292,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4298,28 +4306,28 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>76</v>
@@ -4356,17 +4364,19 @@
         <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4375,27 +4385,27 @@
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4406,28 +4416,32 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4463,59 +4477,57 @@
         <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
@@ -4527,17 +4539,15 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4574,31 +4584,31 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
@@ -4615,43 +4625,41 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>106</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4675,49 +4683,49 @@
         <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4726,9 +4734,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4742,28 +4750,28 @@
         <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4788,13 +4796,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4812,7 +4820,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4827,10 +4835,10 @@
         <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4841,7 +4849,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4864,19 +4872,19 @@
         <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4889,7 +4897,7 @@
         <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>76</v>
@@ -4901,13 +4909,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4925,7 +4933,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4940,13 +4948,13 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4954,7 +4962,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4977,18 +4985,20 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
@@ -5000,7 +5010,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -5036,7 +5046,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5051,21 +5061,21 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5079,7 +5089,7 @@
         <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -5088,15 +5098,17 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>256</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -5109,7 +5121,7 @@
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -5145,7 +5157,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5160,13 +5172,13 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -5174,7 +5186,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5197,17 +5209,15 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -5256,7 +5266,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5271,25 +5281,23 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5301,7 +5309,7 @@
         <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5310,18 +5318,18 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5330,7 +5338,7 @@
         <v>76</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>76</v>
@@ -5369,36 +5377,36 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>102</v>
+        <v>274</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>275</v>
@@ -5414,7 +5422,7 @@
         <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5423,17 +5431,17 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -5482,7 +5490,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5491,75 +5499,73 @@
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R32" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="Q32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="S32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5597,36 +5603,36 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>289</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5637,41 +5643,43 @@
         <v>85</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="Q33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>76</v>
@@ -5686,11 +5694,13 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>76</v>
@@ -5708,13 +5718,13 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -5723,21 +5733,21 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>102</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5748,7 +5758,7 @@
         <v>85</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
@@ -5760,19 +5770,19 @@
         <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5797,13 +5807,11 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
@@ -5821,36 +5829,36 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>306</v>
+        <v>102</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5858,34 +5866,34 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5934,36 +5942,36 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5977,7 +5985,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5986,19 +5994,19 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -6047,7 +6055,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6056,27 +6064,27 @@
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>319</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6087,10 +6095,10 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -6099,16 +6107,20 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>316</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>99</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
@@ -6156,28 +6168,28 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>101</v>
+        <v>315</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>321</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>102</v>
+        <v>324</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -6185,18 +6197,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>76</v>
@@ -6208,17 +6220,15 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>76</v>
@@ -6255,31 +6265,31 @@
         <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>76</v>
@@ -6294,15 +6304,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6312,7 +6320,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -6321,15 +6329,17 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>326</v>
+        <v>105</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>327</v>
+        <v>106</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -6366,16 +6376,16 @@
         <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>112</v>
@@ -6396,7 +6406,7 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6407,10 +6417,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>76</v>
@@ -6432,13 +6442,13 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6518,9 +6528,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6529,7 +6541,7 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>86</v>
@@ -6538,10 +6550,10 @@
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>161</v>
+        <v>333</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>334</v>
@@ -6574,13 +6586,13 @@
         <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>76</v>
@@ -6598,28 +6610,28 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>338</v>
+        <v>112</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6627,7 +6639,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6650,20 +6662,16 @@
         <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6687,13 +6695,13 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6711,7 +6719,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6720,27 +6728,27 @@
         <v>85</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>254</v>
+        <v>345</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6754,28 +6762,28 @@
         <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6800,13 +6808,13 @@
         <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>76</v>
@@ -6824,7 +6832,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6839,21 +6847,21 @@
         <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>361</v>
+        <v>257</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6867,27 +6875,29 @@
         <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>363</v>
+        <v>161</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6911,13 +6921,13 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>359</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>76</v>
@@ -6935,7 +6945,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6950,21 +6960,21 @@
         <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>362</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>102</v>
+        <v>363</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6978,7 +6988,7 @@
         <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6987,15 +6997,17 @@
         <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>256</v>
+        <v>366</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -7044,7 +7056,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7059,21 +7071,21 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>372</v>
+        <v>102</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7081,35 +7093,31 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F46" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F46" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>374</v>
+        <v>259</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>76</v>
       </c>
@@ -7157,36 +7165,36 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>380</v>
+        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>381</v>
+        <v>184</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7194,13 +7202,13 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -7209,16 +7217,20 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>377</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>99</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7266,28 +7278,28 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>101</v>
+        <v>376</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>383</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -7295,18 +7307,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>76</v>
@@ -7318,17 +7330,15 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -7365,31 +7375,31 @@
         <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>76</v>
@@ -7404,25 +7414,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -7431,16 +7439,16 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>386</v>
+        <v>105</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>387</v>
+        <v>106</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>107</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>389</v>
+        <v>108</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7478,16 +7486,16 @@
         <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>112</v>
@@ -7508,7 +7516,7 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7517,11 +7525,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7533,29 +7543,27 @@
         <v>85</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>161</v>
+        <v>389</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>394</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7567,7 +7575,7 @@
         <v>76</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>76</v>
@@ -7579,13 +7587,13 @@
         <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>396</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>76</v>
@@ -7603,36 +7611,36 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>398</v>
+        <v>112</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7646,10 +7654,10 @@
         <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>86</v>
@@ -7658,15 +7666,17 @@
         <v>161</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7678,7 +7688,7 @@
         <v>76</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>76</v>
@@ -7690,13 +7700,13 @@
         <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>76</v>
@@ -7714,7 +7724,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7729,13 +7739,13 @@
         <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7743,7 +7753,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7766,20 +7776,18 @@
         <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7791,7 +7799,7 @@
         <v>76</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>76</v>
@@ -7803,13 +7811,13 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>409</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7827,7 +7835,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7842,10 +7850,10 @@
         <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>418</v>
+        <v>363</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7856,7 +7864,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7867,7 +7875,7 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>420</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>86</v>
@@ -7882,13 +7890,17 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7900,7 +7912,7 @@
         <v>76</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>76</v>
@@ -7936,13 +7948,13 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
@@ -7951,13 +7963,13 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>427</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7965,18 +7977,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>429</v>
+        <v>76</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>85</v>
+        <v>423</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>86</v>
@@ -7991,10 +8003,10 @@
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8009,7 +8021,7 @@
         <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>76</v>
@@ -8045,13 +8057,13 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
@@ -8060,25 +8072,25 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8088,7 +8100,7 @@
         <v>85</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -8100,14 +8112,12 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -8120,7 +8130,7 @@
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>76</v>
@@ -8156,7 +8166,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8171,25 +8181,25 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>439</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8199,7 +8209,7 @@
         <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -8211,12 +8221,14 @@
         <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -8229,7 +8241,7 @@
         <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>76</v>
+        <v>445</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>76</v>
@@ -8241,13 +8253,13 @@
         <v>76</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>450</v>
+        <v>76</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>451</v>
+        <v>76</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>76</v>
@@ -8265,7 +8277,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8280,13 +8292,13 @@
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>455</v>
+        <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8294,11 +8306,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8320,10 +8332,10 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8338,7 +8350,7 @@
         <v>76</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>460</v>
+        <v>76</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>76</v>
@@ -8350,13 +8362,13 @@
         <v>76</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>76</v>
+        <v>453</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>76</v>
+        <v>454</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>76</v>
@@ -8374,7 +8386,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8389,13 +8401,13 @@
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
@@ -8403,11 +8415,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>76</v>
+        <v>460</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8429,14 +8441,12 @@
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -8449,7 +8459,7 @@
         <v>76</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>76</v>
+        <v>463</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>76</v>
@@ -8485,7 +8495,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8500,21 +8510,21 @@
         <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8528,7 +8538,7 @@
         <v>85</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -8537,18 +8547,18 @@
         <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>256</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8560,7 +8570,7 @@
         <v>76</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>477</v>
+        <v>76</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>76</v>
@@ -8596,7 +8606,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8611,21 +8621,21 @@
         <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>372</v>
+        <v>474</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>262</v>
+        <v>475</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8639,7 +8649,7 @@
         <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8648,17 +8658,17 @@
         <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>481</v>
+        <v>259</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8671,7 +8681,7 @@
         <v>76</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>76</v>
+        <v>480</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>76</v>
@@ -8707,7 +8717,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8722,13 +8732,13 @@
         <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>286</v>
+        <v>482</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>485</v>
+        <v>375</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
@@ -8736,7 +8746,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8747,7 +8757,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>86</v>
@@ -8756,22 +8766,20 @@
         <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8820,13 +8828,13 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
@@ -8835,21 +8843,21 @@
         <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8860,10 +8868,10 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8872,16 +8880,20 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>490</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>99</v>
+        <v>491</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8929,25 +8941,25 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>101</v>
+        <v>489</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>102</v>
+        <v>495</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -8958,18 +8970,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>76</v>
@@ -8981,17 +8993,15 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -9040,19 +9050,19 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>76</v>
@@ -9069,11 +9079,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>496</v>
+        <v>104</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9086,26 +9096,24 @@
         <v>76</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>105</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>497</v>
+        <v>106</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>498</v>
+        <v>107</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="N64" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>76</v>
       </c>
@@ -9153,7 +9161,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>499</v>
+        <v>112</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9171,7 +9179,7 @@
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -9182,40 +9190,42 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>76</v>
+        <v>499</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M65" s="2"/>
+      <c r="M65" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>503</v>
+        <v>204</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -9240,13 +9250,13 @@
         <v>76</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>504</v>
+        <v>76</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>505</v>
+        <v>76</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>76</v>
@@ -9264,25 +9274,25 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>506</v>
+        <v>184</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -9293,7 +9303,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9316,17 +9326,17 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>508</v>
+        <v>230</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -9351,13 +9361,13 @@
         <v>76</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>76</v>
+        <v>507</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>76</v>
+        <v>508</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -9375,7 +9385,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9390,10 +9400,10 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>512</v>
+        <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9402,9 +9412,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9415,10 +9425,10 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -9427,17 +9437,17 @@
         <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>313</v>
+        <v>511</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -9486,13 +9496,13 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>76</v>
@@ -9501,10 +9511,10 @@
         <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -9513,9 +9523,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9526,10 +9536,10 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -9538,16 +9548,18 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>316</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>99</v>
+        <v>518</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>100</v>
+        <v>519</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9595,25 +9607,25 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>101</v>
+        <v>517</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>76</v>
+        <v>521</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>102</v>
+        <v>522</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -9624,18 +9636,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>76</v>
@@ -9647,17 +9659,15 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9694,31 +9704,31 @@
         <v>76</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>76</v>
@@ -9735,13 +9745,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9760,15 +9768,17 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>326</v>
+        <v>105</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>327</v>
+        <v>106</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>76</v>
@@ -9805,16 +9815,16 @@
         <v>76</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE70" t="s" s="2">
         <v>112</v>
@@ -9835,7 +9845,7 @@
         <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9846,10 +9856,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>76</v>
@@ -9871,13 +9881,13 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9955,11 +9965,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B72" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="C72" t="s" s="2">
         <v>76</v>
       </c>
@@ -9968,19 +9980,19 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>161</v>
+        <v>333</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>334</v>
@@ -10013,13 +10025,13 @@
         <v>76</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>76</v>
@@ -10037,28 +10049,28 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>338</v>
+        <v>112</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>76</v>
@@ -10066,7 +10078,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10089,20 +10101,16 @@
         <v>86</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>76</v>
       </c>
@@ -10126,13 +10134,13 @@
         <v>76</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>76</v>
@@ -10150,7 +10158,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10159,19 +10167,19 @@
         <v>85</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>254</v>
+        <v>345</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -10179,7 +10187,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10196,25 +10204,25 @@
         <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>76</v>
@@ -10239,13 +10247,13 @@
         <v>76</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>76</v>
@@ -10263,7 +10271,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10278,21 +10286,21 @@
         <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>361</v>
+        <v>257</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10306,27 +10314,29 @@
         <v>85</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>363</v>
+        <v>161</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10350,13 +10360,13 @@
         <v>76</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>76</v>
+        <v>359</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>76</v>
@@ -10374,7 +10384,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10389,13 +10399,13 @@
         <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>102</v>
+        <v>362</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>102</v>
+        <v>363</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10403,7 +10413,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10426,15 +10436,17 @@
         <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>256</v>
+        <v>366</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10483,7 +10495,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10498,13 +10510,13 @@
         <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>372</v>
+        <v>102</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10512,7 +10524,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10532,21 +10544,19 @@
         <v>76</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>374</v>
+        <v>259</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>528</v>
+        <v>372</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>529</v>
+        <v>373</v>
       </c>
       <c r="M77" s="2"/>
-      <c r="N77" t="s" s="2">
-        <v>530</v>
-      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>76</v>
       </c>
@@ -10594,7 +10604,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>527</v>
+        <v>374</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10609,21 +10619,21 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>531</v>
+        <v>184</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>532</v>
+        <v>375</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10634,10 +10644,10 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -10646,17 +10656,17 @@
         <v>76</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>534</v>
+        <v>377</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -10705,13 +10715,13 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>76</v>
@@ -10720,20 +10730,131 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>76</v>
+        <v>534</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AL78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AL79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM78">
+  <autoFilter ref="A1:AM79">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10743,7 +10864,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI77">
+  <conditionalFormatting sqref="A2:AI78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T14:32:46-05:00</t>
+    <t>2022-03-16T09:57:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:57:32-04:00</t>
+    <t>2022-03-25T16:16:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:16:05-04:00</t>
+    <t>2022-03-25T16:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:25:37-04:00</t>
+    <t>2022-04-01T12:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3957,7 +3957,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>185</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -4068,7 +4068,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>185</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -4179,7 +4179,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>185</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -4847,7 +4847,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>229</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -5293,7 +5293,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>266</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5969,7 +5969,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>310</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -6415,7 +6415,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>327</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -6526,7 +6526,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>327</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6972,7 +6972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>365</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>78</v>
@@ -7525,7 +7525,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>387</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>85</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7751,7 +7751,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>404</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7862,7 +7862,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>413</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -8744,7 +8744,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>483</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8855,7 +8855,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>489</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -9523,7 +9523,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>517</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -10076,7 +10076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
         <v>525</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>85</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -10185,7 +10185,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
         <v>526</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>85</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
@@ -10298,7 +10298,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
         <v>527</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>85</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>86</v>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T12:43:46-04:00</t>
+    <t>2022-04-05T10:32:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T10:32:14-04:00</t>
+    <t>2022-04-05T18:50:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:50:47-04:00</t>
+    <t>2022-04-08T11:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="549">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T11:43:46-04:00</t>
+    <t>2022-04-20T16:26:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -630,6 +630,32 @@
   </si>
   <si>
     <t>An extension to add qualifications for an organization (e.g. accreditation) or practitionerRole (e.g. registered to prescribe controlled substances).</t>
+  </si>
+  <si>
+    <t>paymentaccepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/paymentAccepted}
+</t>
+  </si>
+  <si>
+    <t>Payment Accepted</t>
+  </si>
+  <si>
+    <t>Methods of payment that can be used for a healthcare service</t>
+  </si>
+  <si>
+    <t>fundingSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/fundingSource}
+</t>
+  </si>
+  <si>
+    <t>Funding Source</t>
+  </si>
+  <si>
+    <t>The sources of funding for a service or organization</t>
   </si>
   <si>
     <t>org-description</t>
@@ -2022,7 +2048,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM79"/>
+  <dimension ref="A1:AM81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4194,7 +4220,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>76</v>
@@ -4292,11 +4318,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4309,26 +4337,22 @@
         <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N21" t="s" s="2">
         <v>204</v>
       </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>76</v>
       </c>
@@ -4376,7 +4400,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4385,7 +4409,7 @@
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>113</v>
@@ -4394,7 +4418,7 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4405,9 +4429,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4416,32 +4442,28 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4477,17 +4499,19 @@
         <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AB22" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4496,59 +4520,63 @@
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4596,25 +4624,25 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4625,11 +4653,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4639,27 +4667,29 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4695,11 +4725,9 @@
         <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4707,7 +4735,7 @@
         <v>111</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4716,27 +4744,27 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4753,26 +4781,22 @@
         <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4796,13 +4820,13 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4820,7 +4844,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4832,13 +4856,13 @@
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4849,18 +4873,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4869,23 +4893,21 @@
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4909,49 +4931,49 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4960,9 +4982,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4976,28 +4998,28 @@
         <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -5010,7 +5032,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -5022,13 +5044,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -5046,7 +5068,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5061,21 +5083,21 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5089,7 +5111,7 @@
         <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -5098,18 +5120,20 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>238</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
@@ -5121,7 +5145,7 @@
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -5133,13 +5157,13 @@
         <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>76</v>
@@ -5157,7 +5181,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5172,21 +5196,21 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5200,7 +5224,7 @@
         <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -5209,16 +5233,20 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>259</v>
+        <v>127</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5230,7 +5258,7 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -5266,7 +5294,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5281,13 +5309,13 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -5295,7 +5323,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5318,16 +5346,16 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>267</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5341,7 +5369,7 @@
         <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>76</v>
@@ -5377,7 +5405,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5392,25 +5420,23 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5422,7 +5448,7 @@
         <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5431,18 +5457,16 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5451,7 +5475,7 @@
         <v>76</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>76</v>
@@ -5490,40 +5514,38 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>102</v>
+        <v>273</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5535,7 +5557,7 @@
         <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5544,18 +5566,18 @@
         <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5564,7 +5586,7 @@
         <v>76</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>76</v>
@@ -5603,44 +5625,46 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>102</v>
+        <v>282</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>85</v>
@@ -5649,38 +5673,34 @@
         <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M33" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R33" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P33" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="Q33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="S33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5718,50 +5738,52 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>291</v>
+        <v>102</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>292</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5770,19 +5792,17 @@
         <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5792,7 +5812,7 @@
         <v>76</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>76</v>
@@ -5807,11 +5827,13 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
@@ -5829,7 +5851,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5838,27 +5860,27 @@
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>300</v>
+        <v>223</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>301</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5875,35 +5897,37 @@
         <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>290</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="Q35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>76</v>
@@ -5942,7 +5966,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5951,27 +5975,27 @@
         <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5979,7 +6003,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>78</v>
@@ -5991,22 +6015,22 @@
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>238</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -6031,13 +6055,11 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -6055,7 +6077,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6070,21 +6092,21 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>308</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6092,10 +6114,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>86</v>
@@ -6104,22 +6126,22 @@
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>316</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -6168,36 +6190,36 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6208,10 +6230,10 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -6223,13 +6245,17 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>99</v>
+        <v>319</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>76</v>
       </c>
@@ -6277,25 +6303,25 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>101</v>
+        <v>318</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>102</v>
+        <v>316</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -6304,13 +6330,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6320,7 +6346,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -6329,18 +6355,20 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>105</v>
+        <v>324</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>106</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>107</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6376,19 +6404,19 @@
         <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>112</v>
+        <v>323</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6397,19 +6425,19 @@
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>113</v>
+        <v>330</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>102</v>
+        <v>332</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -6417,11 +6445,9 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6430,7 +6456,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>76</v>
@@ -6442,13 +6468,13 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>329</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>330</v>
+        <v>99</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>100</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6499,25 +6525,25 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6528,13 +6554,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6553,15 +6577,17 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>334</v>
+        <v>106</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>76</v>
@@ -6598,16 +6624,16 @@
         <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>112</v>
@@ -6628,7 +6654,7 @@
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6637,11 +6663,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6650,25 +6678,25 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>161</v>
+        <v>337</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6695,62 +6723,64 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6759,32 +6789,28 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>341</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6832,36 +6858,36 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>351</v>
+        <v>112</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6875,10 +6901,10 @@
         <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>86</v>
@@ -6887,17 +6913,13 @@
         <v>161</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6921,13 +6943,13 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>76</v>
@@ -6945,7 +6967,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6954,27 +6976,27 @@
         <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6988,7 +7010,7 @@
         <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6997,18 +7019,20 @@
         <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>366</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
       </c>
@@ -7056,7 +7080,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7071,13 +7095,13 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>360</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>102</v>
+        <v>361</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -7085,7 +7109,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7102,22 +7126,26 @@
         <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
       </c>
@@ -7141,13 +7169,13 @@
         <v>76</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>76</v>
@@ -7165,7 +7193,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7180,21 +7208,21 @@
         <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>184</v>
+        <v>370</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>265</v>
+        <v>372</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7205,32 +7233,30 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J47" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K47" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7278,28 +7304,28 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>382</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>383</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>384</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>385</v>
+        <v>102</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -7307,7 +7333,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7327,16 +7353,16 @@
         <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>267</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>99</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>100</v>
+        <v>381</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7387,7 +7413,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>101</v>
+        <v>382</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7399,28 +7425,28 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>102</v>
+        <v>383</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7430,7 +7456,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -7439,18 +7465,20 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>105</v>
+        <v>385</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>386</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>107</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7486,19 +7514,19 @@
         <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>112</v>
+        <v>384</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7507,19 +7535,19 @@
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>390</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>113</v>
+        <v>391</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7527,11 +7555,9 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7552,17 +7578,15 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>389</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>390</v>
+        <v>99</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>76</v>
@@ -7611,25 +7635,25 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7640,43 +7664,41 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>394</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>395</v>
+        <v>107</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7688,7 +7710,7 @@
         <v>76</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>76</v>
@@ -7700,52 +7722,52 @@
         <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>401</v>
+        <v>112</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>402</v>
+        <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>363</v>
+        <v>102</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>403</v>
+        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7753,9 +7775,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="C52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7773,19 +7797,19 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>161</v>
+        <v>397</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7799,7 +7823,7 @@
         <v>76</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>408</v>
+        <v>76</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>76</v>
@@ -7811,13 +7835,13 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>410</v>
+        <v>76</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7835,25 +7859,25 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>411</v>
+        <v>112</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>412</v>
+        <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>363</v>
+        <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7864,7 +7888,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7881,25 +7905,25 @@
         <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7912,7 +7936,7 @@
         <v>76</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>76</v>
@@ -7924,13 +7948,13 @@
         <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>407</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>76</v>
@@ -7948,7 +7972,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7963,21 +7987,21 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7988,10 +8012,10 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>423</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -8000,15 +8024,17 @@
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -8021,7 +8047,7 @@
         <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>76</v>
@@ -8033,13 +8059,13 @@
         <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>417</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>76</v>
@@ -8057,13 +8083,13 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>76</v>
@@ -8072,25 +8098,25 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>430</v>
+        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>432</v>
+        <v>76</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8100,7 +8126,7 @@
         <v>85</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -8112,13 +8138,17 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
       </c>
@@ -8130,7 +8160,7 @@
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>76</v>
@@ -8166,7 +8196,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8181,35 +8211,35 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>439</v>
+        <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>441</v>
+        <v>76</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>85</v>
+        <v>431</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -8221,14 +8251,12 @@
         <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -8241,7 +8269,7 @@
         <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>76</v>
@@ -8277,13 +8305,13 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
@@ -8292,13 +8320,13 @@
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>438</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
@@ -8306,11 +8334,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8332,10 +8360,10 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8350,7 +8378,7 @@
         <v>76</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>76</v>
+        <v>443</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>76</v>
@@ -8362,13 +8390,13 @@
         <v>76</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>453</v>
+        <v>76</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>454</v>
+        <v>76</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>76</v>
@@ -8386,7 +8414,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8401,25 +8429,25 @@
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8429,7 +8457,7 @@
         <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -8441,12 +8469,14 @@
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -8459,7 +8489,7 @@
         <v>76</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>76</v>
@@ -8495,7 +8525,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8510,13 +8540,13 @@
         <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>467</v>
+        <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8524,11 +8554,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8550,14 +8580,12 @@
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -8582,13 +8610,13 @@
         <v>76</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>76</v>
+        <v>461</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>76</v>
+        <v>462</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>76</v>
@@ -8606,7 +8634,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8621,25 +8649,25 @@
         <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>76</v>
+        <v>468</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8649,7 +8677,7 @@
         <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8658,18 +8686,16 @@
         <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>259</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>479</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8681,7 +8707,7 @@
         <v>76</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>76</v>
@@ -8717,7 +8743,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8732,21 +8758,21 @@
         <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>375</v>
+        <v>474</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>265</v>
+        <v>475</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8760,7 +8786,7 @@
         <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8769,18 +8795,18 @@
         <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>484</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8828,7 +8854,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8843,13 +8869,13 @@
         <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>289</v>
+        <v>481</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>102</v>
+        <v>483</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -8857,7 +8883,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8868,7 +8894,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>76</v>
@@ -8877,22 +8903,20 @@
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>490</v>
+        <v>267</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8905,7 +8929,7 @@
         <v>76</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>76</v>
+        <v>488</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>76</v>
@@ -8947,7 +8971,7 @@
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
@@ -8956,13 +8980,13 @@
         <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>76</v>
+        <v>490</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>495</v>
+        <v>383</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8970,7 +8994,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8990,19 +9014,21 @@
         <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>492</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>99</v>
+        <v>493</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>100</v>
+        <v>494</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
       </c>
@@ -9050,7 +9076,7 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>101</v>
+        <v>491</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9062,16 +9088,16 @@
         <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -9083,7 +9109,7 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9102,18 +9128,20 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>105</v>
+        <v>498</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>106</v>
+        <v>499</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>107</v>
+        <v>500</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>76</v>
       </c>
@@ -9161,7 +9189,7 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>112</v>
+        <v>497</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9173,13 +9201,13 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>102</v>
+        <v>503</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -9190,43 +9218,39 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>499</v>
+        <v>76</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>500</v>
+        <v>99</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>76</v>
       </c>
@@ -9274,25 +9298,25 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>502</v>
+        <v>101</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -9303,18 +9327,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>76</v>
@@ -9326,18 +9350,18 @@
         <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>504</v>
+        <v>106</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9361,13 +9385,13 @@
         <v>76</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>507</v>
+        <v>76</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>508</v>
+        <v>76</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>76</v>
@@ -9385,25 +9409,25 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>503</v>
+        <v>112</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>509</v>
+        <v>102</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9414,40 +9438,42 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>76</v>
+        <v>507</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>511</v>
+        <v>105</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N67" t="s" s="2">
-        <v>514</v>
+        <v>212</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -9502,19 +9528,19 @@
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>515</v>
+        <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>516</v>
+        <v>184</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -9525,7 +9551,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9536,7 +9562,7 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>76</v>
@@ -9548,17 +9574,17 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>316</v>
+        <v>238</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
@@ -9583,13 +9609,13 @@
         <v>76</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>76</v>
+        <v>515</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>76</v>
+        <v>516</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>76</v>
@@ -9607,13 +9633,13 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
@@ -9622,10 +9648,10 @@
         <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>521</v>
+        <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -9636,7 +9662,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9659,16 +9685,18 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>519</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>99</v>
+        <v>520</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>100</v>
+        <v>521</v>
       </c>
       <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9716,7 +9744,7 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>101</v>
+        <v>518</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -9728,13 +9756,13 @@
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>76</v>
+        <v>523</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>102</v>
+        <v>524</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9745,11 +9773,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9768,18 +9796,18 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>105</v>
+        <v>324</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>106</v>
+        <v>526</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
       </c>
@@ -9815,19 +9843,19 @@
         <v>76</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>112</v>
+        <v>525</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9839,13 +9867,13 @@
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>76</v>
+        <v>529</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>102</v>
+        <v>530</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9856,11 +9884,9 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>76</v>
       </c>
@@ -9869,7 +9895,7 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>76</v>
@@ -9881,13 +9907,13 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>329</v>
+        <v>87</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>330</v>
+        <v>99</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>331</v>
+        <v>100</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9938,25 +9964,25 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -9967,13 +9993,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9992,15 +10016,17 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>334</v>
+        <v>106</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>76</v>
@@ -10037,16 +10063,16 @@
         <v>76</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>112</v>
@@ -10067,7 +10093,7 @@
         <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>76</v>
@@ -10078,9 +10104,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="C73" t="s" s="2">
         <v>76</v>
       </c>
@@ -10089,7 +10117,7 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>76</v>
@@ -10098,16 +10126,16 @@
         <v>76</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>161</v>
+        <v>337</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10134,13 +10162,13 @@
         <v>76</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>76</v>
@@ -10158,28 +10186,28 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>341</v>
+        <v>112</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>344</v>
+        <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>76</v>
@@ -10187,9 +10215,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B74" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="C74" t="s" s="2">
         <v>76</v>
       </c>
@@ -10198,7 +10228,7 @@
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>76</v>
@@ -10207,23 +10237,19 @@
         <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>87</v>
+        <v>341</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>76</v>
       </c>
@@ -10271,28 +10297,28 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>351</v>
+        <v>112</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>352</v>
+        <v>76</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10300,7 +10326,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10317,7 +10343,7 @@
         <v>76</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>86</v>
@@ -10326,17 +10352,13 @@
         <v>161</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10360,13 +10382,13 @@
         <v>76</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>76</v>
@@ -10384,7 +10406,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10393,19 +10415,19 @@
         <v>85</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10413,7 +10435,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10436,18 +10458,20 @@
         <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>366</v>
+        <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
       </c>
@@ -10495,7 +10519,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10510,13 +10534,13 @@
         <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>102</v>
+        <v>360</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>102</v>
+        <v>361</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10524,7 +10548,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10541,22 +10565,26 @@
         <v>76</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>76</v>
       </c>
@@ -10580,13 +10608,13 @@
         <v>76</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10604,7 +10632,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10619,13 +10647,13 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>184</v>
+        <v>370</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>265</v>
+        <v>372</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -10633,7 +10661,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10653,21 +10681,21 @@
         <v>76</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K78" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" t="s" s="2">
-        <v>533</v>
-      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>76</v>
       </c>
@@ -10715,7 +10743,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>530</v>
+        <v>378</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10730,10 +10758,10 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>534</v>
+        <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>535</v>
+        <v>102</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>76</v>
@@ -10742,9 +10770,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10755,30 +10783,28 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J79" t="s" s="2">
-        <v>537</v>
+        <v>267</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>538</v>
+        <v>380</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>539</v>
+        <v>381</v>
       </c>
       <c r="M79" s="2"/>
-      <c r="N79" t="s" s="2">
-        <v>540</v>
-      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>76</v>
       </c>
@@ -10826,13 +10852,13 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>536</v>
+        <v>382</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
@@ -10841,20 +10867,242 @@
         <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AL79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM79" t="s" s="2">
+      <c r="AL81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM79">
+  <autoFilter ref="A1:AM81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10864,7 +11112,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:26:55-04:00</t>
+    <t>2022-05-25T13:59:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T13:59:19-04:00</t>
+    <t>2022-06-03T15:19:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T15:19:55-04:00</t>
+    <t>2022-07-08T11:33:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$80</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="545">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-12T12:55:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -619,19 +619,6 @@
 </t>
   </si>
   <si>
-    <t>qualification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification}
-</t>
-  </si>
-  <si>
-    <t>Qualification</t>
-  </si>
-  <si>
-    <t>An extension to add qualifications for an organization (e.g. accreditation) or practitionerRole (e.g. registered to prescribe controlled substances).</t>
-  </si>
-  <si>
     <t>paymentaccepted</t>
   </si>
   <si>
@@ -642,7 +629,7 @@
     <t>Payment Accepted</t>
   </si>
   <si>
-    <t>Methods of payment that can be used for a healthcare service</t>
+    <t>Methods of payment that can be used for a healthcare service.</t>
   </si>
   <si>
     <t>fundingSource</t>
@@ -2048,7 +2035,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM81"/>
+  <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4331,7 +4318,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>76</v>
@@ -4429,41 +4416,43 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B22" t="s" s="2">
         <v>205</v>
       </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4511,7 +4500,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4520,7 +4509,7 @@
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>113</v>
@@ -4529,7 +4518,7 @@
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -4540,11 +4529,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4554,28 +4543,28 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I23" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4612,19 +4601,17 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4633,27 +4620,27 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4664,32 +4651,28 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4725,57 +4708,59 @@
         <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
@@ -4787,15 +4772,17 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4832,31 +4819,31 @@
         <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
@@ -4873,41 +4860,43 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4931,49 +4920,49 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4984,7 +4973,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5001,25 +4990,25 @@
         <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -5044,13 +5033,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -5068,7 +5057,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5083,10 +5072,10 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -5095,9 +5084,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5111,7 +5100,7 @@
         <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -5120,19 +5109,19 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -5145,7 +5134,7 @@
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -5157,13 +5146,13 @@
         <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>76</v>
@@ -5181,7 +5170,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5196,13 +5185,13 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -5210,7 +5199,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5233,20 +5222,18 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5258,7 +5245,7 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -5294,7 +5281,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5309,21 +5296,21 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5337,7 +5324,7 @@
         <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5346,17 +5333,15 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -5369,7 +5354,7 @@
         <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>76</v>
@@ -5405,7 +5390,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5420,21 +5405,21 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5448,7 +5433,7 @@
         <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5457,15 +5442,17 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -5514,7 +5501,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5529,13 +5516,13 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5543,9 +5530,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5566,18 +5555,18 @@
         <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5586,7 +5575,7 @@
         <v>76</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>76</v>
@@ -5625,39 +5614,39 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>76</v>
@@ -5670,7 +5659,7 @@
         <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5679,17 +5668,17 @@
         <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
@@ -5699,7 +5688,7 @@
         <v>76</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>76</v>
@@ -5738,7 +5727,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5747,72 +5736,74 @@
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="N34" t="s" s="2">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="Q34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>76</v>
@@ -5851,36 +5842,36 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>223</v>
+        <v>294</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>224</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5891,43 +5882,41 @@
         <v>85</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P35" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>76</v>
@@ -5942,13 +5931,11 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5966,13 +5953,13 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
@@ -5981,21 +5968,21 @@
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>299</v>
+        <v>102</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6006,7 +5993,7 @@
         <v>85</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
@@ -6018,19 +6005,19 @@
         <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -6055,58 +6042,60 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>102</v>
+        <v>313</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6114,10 +6103,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>86</v>
@@ -6126,22 +6115,22 @@
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
@@ -6190,28 +6179,28 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -6219,7 +6208,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6242,19 +6231,19 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>320</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>76</v>
@@ -6303,7 +6292,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6312,27 +6301,27 @@
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>97</v>
+        <v>326</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>76</v>
+        <v>327</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6343,10 +6332,10 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -6355,20 +6344,16 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>324</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>325</v>
+        <v>99</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6416,28 +6401,28 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>323</v>
+        <v>101</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>332</v>
+        <v>102</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>333</v>
+        <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -6445,18 +6430,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>76</v>
@@ -6468,15 +6453,17 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>76</v>
@@ -6513,31 +6500,31 @@
         <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
@@ -6554,11 +6541,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="C41" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6577,17 +6566,15 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>105</v>
+        <v>333</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>76</v>
@@ -6624,16 +6611,16 @@
         <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>112</v>
@@ -6654,7 +6641,7 @@
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6665,7 +6652,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>336</v>
@@ -6774,13 +6761,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B43" t="s" s="2">
         <v>340</v>
       </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6789,25 +6774,25 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6834,13 +6819,13 @@
         <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>76</v>
@@ -6858,28 +6843,28 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6887,7 +6872,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6910,16 +6895,20 @@
         <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6943,13 +6932,13 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>347</v>
+        <v>76</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>76</v>
@@ -6967,7 +6956,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6976,27 +6965,27 @@
         <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>353</v>
+        <v>261</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7010,28 +6999,28 @@
         <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -7056,13 +7045,13 @@
         <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>76</v>
@@ -7080,7 +7069,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7095,13 +7084,13 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>265</v>
+        <v>368</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -7109,7 +7098,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7126,26 +7115,24 @@
         <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>161</v>
+        <v>370</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>76</v>
       </c>
@@ -7169,13 +7156,13 @@
         <v>76</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>76</v>
@@ -7193,7 +7180,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7208,13 +7195,13 @@
         <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>371</v>
+        <v>102</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -7222,7 +7209,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7245,17 +7232,15 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>374</v>
+        <v>263</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M47" t="s" s="2">
         <v>377</v>
       </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -7319,21 +7304,21 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>102</v>
+        <v>379</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7344,28 +7329,32 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>267</v>
+        <v>381</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7413,36 +7402,36 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>386</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>97</v>
+        <v>387</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>184</v>
+        <v>388</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>273</v>
+        <v>102</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7453,10 +7442,10 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -7465,20 +7454,16 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>385</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>386</v>
+        <v>99</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7526,28 +7511,28 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>384</v>
+        <v>101</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>390</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>391</v>
+        <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>393</v>
+        <v>102</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7555,18 +7540,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>76</v>
@@ -7578,15 +7563,17 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>76</v>
@@ -7623,31 +7610,31 @@
         <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
@@ -7664,18 +7651,20 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="C51" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>76</v>
@@ -7687,16 +7676,16 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>105</v>
+        <v>393</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>106</v>
+        <v>394</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>107</v>
+        <v>395</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>108</v>
+        <v>396</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7734,16 +7723,16 @@
         <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>112</v>
@@ -7764,7 +7753,7 @@
         <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7775,11 +7764,9 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7794,13 +7781,13 @@
         <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>397</v>
+        <v>161</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>398</v>
@@ -7811,7 +7798,9 @@
       <c r="M52" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="N52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7823,7 +7812,7 @@
         <v>76</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>76</v>
+        <v>402</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>76</v>
@@ -7835,13 +7824,13 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>404</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7859,28 +7848,28 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>112</v>
+        <v>405</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>76</v>
+        <v>407</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7888,7 +7877,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7905,7 +7894,7 @@
         <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>86</v>
@@ -7914,17 +7903,15 @@
         <v>161</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7936,7 +7923,7 @@
         <v>76</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>76</v>
@@ -7948,13 +7935,13 @@
         <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>76</v>
@@ -7972,7 +7959,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7987,13 +7974,13 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>411</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -8001,7 +7988,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8024,18 +8011,20 @@
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
       </c>
@@ -8047,7 +8036,7 @@
         <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>76</v>
@@ -8059,13 +8048,13 @@
         <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>76</v>
@@ -8083,7 +8072,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8098,10 +8087,10 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -8110,9 +8099,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8123,10 +8112,10 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>85</v>
+        <v>427</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -8138,17 +8127,13 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>76</v>
       </c>
@@ -8160,7 +8145,7 @@
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>76</v>
@@ -8196,13 +8181,13 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>76</v>
@@ -8211,13 +8196,13 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>434</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>
@@ -8225,18 +8210,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>76</v>
+        <v>436</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>431</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>86</v>
@@ -8251,10 +8236,10 @@
         <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8269,7 +8254,7 @@
         <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>76</v>
@@ -8305,13 +8290,13 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
@@ -8320,25 +8305,25 @@
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8348,7 +8333,7 @@
         <v>85</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -8360,12 +8345,14 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>76</v>
@@ -8378,7 +8365,7 @@
         <v>76</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>76</v>
@@ -8414,7 +8401,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8429,25 +8416,25 @@
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>447</v>
+        <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8457,7 +8444,7 @@
         <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -8469,14 +8456,12 @@
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -8489,7 +8474,7 @@
         <v>76</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>453</v>
+        <v>76</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>76</v>
@@ -8501,13 +8486,13 @@
         <v>76</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>76</v>
+        <v>457</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>76</v>
@@ -8525,7 +8510,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8540,13 +8525,13 @@
         <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>76</v>
+        <v>462</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8554,11 +8539,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8580,10 +8565,10 @@
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8598,7 +8583,7 @@
         <v>76</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>76</v>
+        <v>467</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>76</v>
@@ -8610,13 +8595,13 @@
         <v>76</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>461</v>
+        <v>76</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>462</v>
+        <v>76</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>76</v>
@@ -8634,7 +8619,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8649,13 +8634,13 @@
         <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>76</v>
@@ -8663,11 +8648,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>468</v>
+        <v>76</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8689,12 +8674,14 @@
         <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8707,7 +8694,7 @@
         <v>76</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>471</v>
+        <v>76</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>76</v>
@@ -8743,7 +8730,7 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8758,21 +8745,21 @@
         <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8786,7 +8773,7 @@
         <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8795,18 +8782,18 @@
         <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>263</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8818,7 +8805,7 @@
         <v>76</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>76</v>
@@ -8854,7 +8841,7 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8869,13 +8856,13 @@
         <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>482</v>
+        <v>379</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>483</v>
+        <v>269</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
@@ -8883,7 +8870,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8906,17 +8893,17 @@
         <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>267</v>
+        <v>488</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>76</v>
@@ -8929,7 +8916,7 @@
         <v>76</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>488</v>
+        <v>76</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>76</v>
@@ -8965,7 +8952,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8980,13 +8967,13 @@
         <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>490</v>
+        <v>293</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>383</v>
+        <v>492</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>273</v>
+        <v>102</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8994,7 +8981,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9005,7 +8992,7 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>76</v>
@@ -9014,20 +9001,22 @@
         <v>76</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="N63" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>76</v>
@@ -9076,13 +9065,13 @@
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>76</v>
@@ -9091,13 +9080,13 @@
         <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -9105,7 +9094,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9116,7 +9105,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>76</v>
@@ -9128,20 +9117,16 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>498</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>499</v>
+        <v>99</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>76</v>
       </c>
@@ -9189,25 +9174,25 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>497</v>
+        <v>101</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>503</v>
+        <v>102</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -9218,18 +9203,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>76</v>
@@ -9241,15 +9226,17 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>76</v>
@@ -9298,19 +9285,19 @@
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>76</v>
@@ -9327,11 +9314,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>104</v>
+        <v>503</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9344,24 +9331,26 @@
         <v>76</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>105</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>106</v>
+        <v>504</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>107</v>
+        <v>505</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="N66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>76</v>
       </c>
@@ -9409,7 +9398,7 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>112</v>
+        <v>506</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9427,7 +9416,7 @@
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -9438,30 +9427,30 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>507</v>
+        <v>76</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>105</v>
+        <v>234</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>508</v>
@@ -9469,11 +9458,9 @@
       <c r="L67" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>108</v>
-      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>212</v>
+        <v>510</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -9498,13 +9485,13 @@
         <v>76</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>76</v>
+        <v>511</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>76</v>
+        <v>512</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>76</v>
@@ -9522,25 +9509,25 @@
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>184</v>
+        <v>513</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -9551,7 +9538,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9574,17 +9561,17 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>238</v>
+        <v>515</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>76</v>
@@ -9609,13 +9596,13 @@
         <v>76</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>515</v>
+        <v>76</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>516</v>
+        <v>76</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>76</v>
@@ -9633,7 +9620,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9648,10 +9635,10 @@
         <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>76</v>
+        <v>519</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -9662,7 +9649,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9673,7 +9660,7 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>76</v>
@@ -9685,17 +9672,17 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>519</v>
+        <v>320</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>76</v>
@@ -9744,13 +9731,13 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
@@ -9759,10 +9746,10 @@
         <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9773,7 +9760,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9784,7 +9771,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>76</v>
@@ -9796,18 +9783,16 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>324</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>526</v>
+        <v>99</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>527</v>
+        <v>100</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>528</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>76</v>
       </c>
@@ -9855,25 +9840,25 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>525</v>
+        <v>101</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>529</v>
+        <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>530</v>
+        <v>102</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9884,18 +9869,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>76</v>
@@ -9907,15 +9892,17 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>76</v>
@@ -9952,31 +9939,31 @@
         <v>76</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
@@ -9993,11 +9980,13 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="B72" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="C72" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10016,17 +10005,15 @@
         <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>105</v>
+        <v>333</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>106</v>
+        <v>334</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>76</v>
@@ -10063,16 +10050,16 @@
         <v>76</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>112</v>
@@ -10093,7 +10080,7 @@
         <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>76</v>
@@ -10104,7 +10091,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>336</v>
@@ -10215,11 +10202,9 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
         <v>76</v>
       </c>
@@ -10228,7 +10213,7 @@
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>76</v>
@@ -10237,16 +10222,16 @@
         <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10273,13 +10258,13 @@
         <v>76</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>76</v>
+        <v>343</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>76</v>
+        <v>344</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>76</v>
@@ -10297,28 +10282,28 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>76</v>
+        <v>348</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10326,7 +10311,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10349,16 +10334,20 @@
         <v>86</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
       </c>
@@ -10382,13 +10371,13 @@
         <v>76</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>347</v>
+        <v>76</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>76</v>
@@ -10406,7 +10395,7 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10415,19 +10404,19 @@
         <v>85</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>353</v>
+        <v>261</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>76</v>
@@ -10435,7 +10424,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10452,25 +10441,25 @@
         <v>76</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10495,13 +10484,13 @@
         <v>76</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>76</v>
@@ -10519,7 +10508,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10534,13 +10523,13 @@
         <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>265</v>
+        <v>368</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>76</v>
@@ -10548,7 +10537,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10565,26 +10554,24 @@
         <v>76</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>161</v>
+        <v>370</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>76</v>
       </c>
@@ -10608,13 +10595,13 @@
         <v>76</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>76</v>
@@ -10632,7 +10619,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10647,13 +10634,13 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>371</v>
+        <v>102</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>76</v>
@@ -10661,7 +10648,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10684,17 +10671,15 @@
         <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>374</v>
+        <v>263</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M78" t="s" s="2">
         <v>377</v>
       </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -10758,13 +10743,13 @@
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>102</v>
+        <v>379</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>
@@ -10772,7 +10757,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10792,19 +10777,21 @@
         <v>76</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>267</v>
+        <v>381</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>380</v>
+        <v>535</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>381</v>
+        <v>536</v>
       </c>
       <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>537</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>76</v>
       </c>
@@ -10852,7 +10839,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>382</v>
+        <v>534</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -10867,21 +10854,21 @@
         <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>184</v>
+        <v>538</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>383</v>
+        <v>539</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10892,10 +10879,10 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -10904,17 +10891,17 @@
         <v>76</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>385</v>
+        <v>541</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>76</v>
@@ -10963,13 +10950,13 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
@@ -10978,131 +10965,20 @@
         <v>97</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>542</v>
+        <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>543</v>
+        <v>102</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM81" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM81">
+  <autoFilter ref="A1:AM80">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11112,7 +10988,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T12:55:11-04:00</t>
+    <t>2022-07-13T15:48:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2045,16 +2045,16 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.14453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.8515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2063,24 +2063,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.23046875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.234375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="102.75" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="102.75390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="211.14453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T15:48:20-04:00</t>
+    <t>2022-07-14T18:44:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T18:44:03-04:00</t>
+    <t>2022-07-21T17:51:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T17:51:33-04:00</t>
+    <t>2022-07-24T13:15:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-24T13:15:49-04:00</t>
+    <t>2022-07-25T09:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
